--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="4084014012333447815" xfId="1" hidden="0"/>
-    <cellStyle name="-6513748755014733610" xfId="2" hidden="0"/>
+    <cellStyle name="-9112800623234941282" xfId="1" hidden="0"/>
+    <cellStyle name="-6692405765157084525" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
